--- a/notebooks/workbook.xlsx
+++ b/notebooks/workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/skgtdni_ucl_ac_uk/Documents/dev/Python/spacetx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\Dimitris\OneDrive - University College London\dev\Python\spacetx\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{341EE3C5-7AAD-49B2-8BDB-C44BF4C1DF1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{341EE3C5-7AAD-49B2-8BDB-C44BF4C1DF1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FE77E649-2287-480F-A8DB-2A925D629A62}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{24F6E321-64DC-4C89-9D72-80292B447657}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24F6E321-64DC-4C89-9D72-80292B447657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -154,7 +154,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>415577</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>21723</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="405432"/>
@@ -211,13 +211,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -271,13 +271,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -340,7 +340,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122710</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>126498</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1288110" cy="405432"/>
@@ -426,13 +426,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -486,13 +486,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -555,7 +555,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>489849</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>107448</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1773049" cy="718530"/>
@@ -660,13 +660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -720,13 +720,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -789,7 +789,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>226431</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>78873</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2242729" cy="1657826"/>
@@ -954,13 +954,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1014,13 +1014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1083,7 +1083,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87865</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>116973</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2691314" cy="1031629"/>
@@ -1207,14 +1207,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1229,7 +1229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629275" y="819151"/>
+          <a:off x="5629275" y="2667001"/>
           <a:ext cx="2381250" cy="419099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1276,8 +1276,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178262</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69348</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12198</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2262864" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -1293,7 +1293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5664662" y="831348"/>
+          <a:off x="5664662" y="2679198"/>
           <a:ext cx="2262864" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1362,14 +1362,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1384,8 +1384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410325" y="1362075"/>
-          <a:ext cx="676275" cy="1209675"/>
+          <a:off x="6410325" y="3162301"/>
+          <a:ext cx="676275" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1422,13 +1422,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1491,7 +1491,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94135</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>174123</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1288110" cy="405432"/>
@@ -1577,13 +1577,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1637,13 +1637,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1706,7 +1706,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>592690</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2691314" cy="647700"/>
@@ -1795,13 +1795,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1855,13 +1855,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1924,7 +1924,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>506965</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2691314" cy="647700"/>
@@ -2013,13 +2013,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>61914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>142878</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,6 +2044,672 @@
             <a:gd name="adj2" fmla="val 21552"/>
             <a:gd name="adj3" fmla="val 26061"/>
           </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63929266-D389-4274-ADF4-E999E6BC373D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="590550"/>
+          <a:ext cx="2790824" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468864</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2691314" cy="647700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7471F-72EF-4256-AA91-EEFB494897E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516864" y="638174"/>
+          <a:ext cx="2691314" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>For the confusion Matrix</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>I need:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9023E890-BD70-4052-B241-B254BDA0C67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590801" y="2247901"/>
+          <a:ext cx="2114549" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155073</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1961114" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D005413A-9B9D-4041-A261-428429E0845E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643712" y="2250573"/>
+          <a:ext cx="1961114" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Predicted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> classes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2F9F3F-73AA-4738-A05F-98A6C07BE51E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276851" y="2257426"/>
+          <a:ext cx="2114549" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174123</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1648785" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDFB235-E35A-4D12-8A68-EF364E1AFE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5485925" y="2269623"/>
+          <a:ext cx="1648785" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Actual Classes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Arrow: Down 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18058BEB-FDA8-4B3C-95B2-EDD90AE4B46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2333784">
+          <a:off x="4000500" y="1485901"/>
+          <a:ext cx="390525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Arrow: Down 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1918661A-1511-41E4-BE16-7624D1A32734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19394837">
+          <a:off x="5334000" y="1495426"/>
+          <a:ext cx="390525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Arrow: Down 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD2485D-CA5B-4A35-BDD7-2B7104B45255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1807953">
+          <a:off x="3143249" y="2781301"/>
+          <a:ext cx="485775" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Arrow: Down 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D72BD-22F6-49D3-830C-257ED7D1366F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19332267">
+          <a:off x="6162674" y="2790826"/>
+          <a:ext cx="485775" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2376,7 +3042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notebooks/workbook.xlsx
+++ b/notebooks/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimitris\OneDrive - University College London\dev\Python\spacetx\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{341EE3C5-7AAD-49B2-8BDB-C44BF4C1DF1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{BA47A151-AE97-46A1-AA3E-AD540980919C}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{341EE3C5-7AAD-49B2-8BDB-C44BF4C1DF1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{23BC1AD2-A999-4A2D-9B43-CD69448AF026}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24F6E321-64DC-4C89-9D72-80292B447657}"/>
   </bookViews>
@@ -879,9 +879,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,7 +1851,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1867,7 +1868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5276850" y="12163425"/>
-          <a:ext cx="676275" cy="771525"/>
+          <a:ext cx="676275" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1903,15 +1904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1926,8 +1927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905001" y="10134600"/>
-          <a:ext cx="2657474" cy="1209675"/>
+          <a:off x="4438650" y="13287375"/>
+          <a:ext cx="2476500" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,12 +1972,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87865</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>116973</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141766</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>31248</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2691314" cy="1031629"/>
+    <xdr:ext cx="1288110" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Rectangle 14">
@@ -1990,8 +1991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1916665" y="10213473"/>
-          <a:ext cx="2691314" cy="1031629"/>
+          <a:off x="5018566" y="13366248"/>
+          <a:ext cx="1288110" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,59 +2036,8 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> calling.</a:t>
+            <a:t> calling</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Treat class assignments </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>as Predicted classes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2663,7 +2613,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2679,7 +2629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11811000" y="8324849"/>
-          <a:ext cx="676275" cy="6734175"/>
+          <a:ext cx="676275" cy="6848476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2831,7 +2781,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>Do the confusion Matrix</a:t>
+            <a:t>Do the confusion matrix</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2870,70 +2820,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Arrow: Bent-Up 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9A2CB3-5C80-4A5D-AA1B-E76C7B59199F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7100886" y="12949239"/>
-          <a:ext cx="1795464" cy="4976813"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 19164"/>
-            <a:gd name="adj2" fmla="val 21552"/>
-            <a:gd name="adj3" fmla="val 26061"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -3053,7 +2939,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>For the confusion Matrix</a:t>
+            <a:t>For the confusion matrix</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4615,6 +4501,284 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87865</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>136023</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2691313" cy="718530"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B179A055-C80E-4E8C-BABC-70055B5032AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4355065" y="15566523"/>
+          <a:ext cx="2691313" cy="718530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Treat class assignments </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>as Predicted classes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Arrow: Down 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC1F66-8FF6-4D3B-B516-B903AB8CC62E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="14020800"/>
+          <a:ext cx="676275" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E38D24-E8AA-4F93-B3E8-1FC39210130B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="15516226"/>
+          <a:ext cx="2790824" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Arrow: Down 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE776A3-E22A-4247-B7EE-B1B8524F16D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8543926" y="14306548"/>
+          <a:ext cx="676275" cy="3190878"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4915,14 +5079,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F505585B-818C-4679-83D3-DEE1A5E969BB}">
-  <dimension ref="A1"/>
+  <dimension ref="D83:X83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="83" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
